--- a/docs/Tabela_Precos.xlsx
+++ b/docs/Tabela_Precos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="21075" windowHeight="10050"/>
+    <workbookView xWindow="480" yWindow="315" windowWidth="20835" windowHeight="9765"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -16,20 +16,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
-  <si>
-    <t>SIMPLES</t>
-  </si>
-  <si>
-    <t>MÉDIO</t>
-  </si>
-  <si>
-    <t>AVANÇADO</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
   <si>
     <t>TABELA DE PREÇOS</t>
   </si>
   <si>
+    <t>TIPO</t>
+  </si>
+  <si>
+    <t>VALOR</t>
+  </si>
+  <si>
     <t>SITE</t>
   </si>
   <si>
@@ -42,40 +39,25 @@
     <t>HOSPEDAGEM</t>
   </si>
   <si>
+    <t>MENSAL</t>
+  </si>
+  <si>
     <t>MANUTENÇÃO</t>
   </si>
   <si>
-    <t>TIPO</t>
-  </si>
-  <si>
-    <t>VALOR</t>
-  </si>
-  <si>
-    <t>MENSAL</t>
-  </si>
-  <si>
-    <t>SIMULAÇÃO MENSAL</t>
-  </si>
-  <si>
-    <t>1 SITE SIMPLES</t>
-  </si>
-  <si>
-    <t>1 SITE MEDIO</t>
-  </si>
-  <si>
-    <t>1 SITE AVANCADO</t>
-  </si>
-  <si>
-    <t>1 SISTEMA 9 HORAS</t>
-  </si>
-  <si>
-    <t>TOTAL</t>
-  </si>
-  <si>
-    <t>OUTROS</t>
-  </si>
-  <si>
-    <t>TOTAL GERAL</t>
+    <t>PERÍDO</t>
+  </si>
+  <si>
+    <t>SIMULAÇÃO DE TRABALHOS MENSAL</t>
+  </si>
+  <si>
+    <t>TEMPO</t>
+  </si>
+  <si>
+    <t>TOTAIS</t>
+  </si>
+  <si>
+    <t>MÉDIA</t>
   </si>
 </sst>
 </file>
@@ -85,7 +67,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,14 +76,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -161,35 +135,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -494,210 +484,175 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D24"/>
+  <dimension ref="B2:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="27.5703125" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" customWidth="1"/>
-    <col min="4" max="4" width="27.42578125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" style="10" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" s="11" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="5">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" s="11" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" s="11" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" s="11" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B10" s="12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+    </row>
+    <row r="11" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="9">
         <v>4</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="6">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="3"/>
-      <c r="C5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="6">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="3"/>
-      <c r="C6" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="6">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="6">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="6">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
+      <c r="D12" s="7">
+        <f>(D4*C12)+D6+D7</f>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="9">
         <v>8</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" s="6">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="3"/>
-      <c r="C10" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="6">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="3"/>
-      <c r="C11" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="6">
-        <v>70</v>
+      <c r="D13" s="7">
+        <f>(D4*C13)+D6+D7</f>
+        <v>630</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="9">
+        <v>10</v>
+      </c>
+      <c r="D14" s="7">
+        <f>(D4*C14)+D6+D7</f>
+        <v>770</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="9">
+        <v>16</v>
+      </c>
+      <c r="D15" s="7">
+        <f>(D5*C15)+D6+D7</f>
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="9" t="s">
+      <c r="C16" s="13">
+        <f>SUM(C12:C15)</f>
+        <v>38</v>
+      </c>
+      <c r="D16" s="14">
+        <f>SUM(D12:D15)</f>
+        <v>3740</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B17" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="10">
-        <f>D4+D8+D9</f>
-        <v>870</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="10">
-        <f>D5+D8+D10</f>
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="10">
-        <f>D6+D8+D11</f>
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="10">
-        <f>D7*9</f>
-        <v>1215</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="11">
-        <f>SUM(C16:C19)</f>
-        <v>4585</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="12">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="12">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" s="13">
-        <f>SUM(C21:C22)</f>
-        <v>270</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C24" s="13">
-        <f>C20-C23</f>
-        <v>4315</v>
-      </c>
+      <c r="C17" s="15">
+        <f>D16/C16</f>
+        <v>98.421052631578945</v>
+      </c>
+      <c r="D17" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B3:C3"/>
+  <mergeCells count="3">
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="C17:D17"/>
     <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B4:B6"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/docs/Tabela_Precos.xlsx
+++ b/docs/Tabela_Precos.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>TABELA DE PREÇOS</t>
   </si>
@@ -46,18 +46,6 @@
   </si>
   <si>
     <t>PERÍDO</t>
-  </si>
-  <si>
-    <t>SIMULAÇÃO DE TRABALHOS MENSAL</t>
-  </si>
-  <si>
-    <t>TEMPO</t>
-  </si>
-  <si>
-    <t>TOTAIS</t>
-  </si>
-  <si>
-    <t>MÉDIA</t>
   </si>
 </sst>
 </file>
@@ -135,11 +123,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -153,13 +138,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -167,20 +148,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -484,174 +452,83 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D17"/>
+  <dimension ref="B2:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.42578125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" style="10" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
     </row>
     <row r="3" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:4" s="11" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
+    <row r="4" spans="2:4" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="2:4" s="11" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
+    <row r="5" spans="2:4" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="2:4" s="11" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
+    <row r="6" spans="2:4" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="2:4" s="11" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
+    <row r="7" spans="2:4" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="5">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B10" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-    </row>
-    <row r="11" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="9">
-        <v>4</v>
-      </c>
-      <c r="D12" s="7">
-        <f>(D4*C12)+D6+D7</f>
-        <v>350</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="9">
-        <v>8</v>
-      </c>
-      <c r="D13" s="7">
-        <f>(D4*C13)+D6+D7</f>
-        <v>630</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="9">
-        <v>10</v>
-      </c>
-      <c r="D14" s="7">
-        <f>(D4*C14)+D6+D7</f>
-        <v>770</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="9">
-        <v>16</v>
-      </c>
-      <c r="D15" s="7">
-        <f>(D5*C15)+D6+D7</f>
-        <v>1990</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="13">
-        <f>SUM(C12:C15)</f>
-        <v>38</v>
-      </c>
-      <c r="D16" s="14">
-        <f>SUM(D12:D15)</f>
-        <v>3740</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="15">
-        <f>D16/C16</f>
-        <v>98.421052631578945</v>
-      </c>
-      <c r="D17" s="16"/>
+      <c r="D7" s="4">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="C17:D17"/>
+  <mergeCells count="1">
     <mergeCell ref="B2:D2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
